--- a/build/web/csv/testReadQuestion.xlsx
+++ b/build/web/csv/testReadQuestion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nocol\Desktop\project_namthanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D2ACE-F9C7-49C2-ACAD-38F0E435C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC1717-0800-4374-B0CC-2D81A6AC7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CAF12C72-FB75-4013-857B-AB50991144B4}"/>
+    <workbookView xWindow="3110" yWindow="840" windowWidth="19200" windowHeight="12670" xr2:uid="{CAF12C72-FB75-4013-857B-AB50991144B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -54,18 +63,33 @@
     <t>a.Yes|space|b.No</t>
   </si>
   <si>
+    <t>Cau 2E</t>
+  </si>
+  <si>
+    <t>Cau 1E</t>
+  </si>
+  <si>
     <t>How bird fly?</t>
   </si>
   <si>
     <t>a.10|space|b.12|space|c.0</t>
   </si>
   <si>
+    <t>Cau 3E</t>
+  </si>
+  <si>
     <t>This is excel</t>
   </si>
   <si>
     <t>a.True|space|b.False|space|c.Yes|space|d.Why</t>
   </si>
   <si>
+    <t>1:50_2:50</t>
+  </si>
+  <si>
+    <t>Cau 4E</t>
+  </si>
+  <si>
     <t>This is fourth one</t>
   </si>
   <si>
@@ -78,19 +102,7 @@
     <t>a.Why |space|b.Yes|space|c.No</t>
   </si>
   <si>
-    <t>Cau1A</t>
-  </si>
-  <si>
-    <t>100_0</t>
-  </si>
-  <si>
-    <t>0_100_0</t>
-  </si>
-  <si>
-    <t>0_50_50_0</t>
-  </si>
-  <si>
-    <t>0_50_50</t>
+    <t>1:50_2:50_3:0</t>
   </si>
 </sst>
 </file>
@@ -442,21 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928B6997-6F11-4958-A405-5A287D5DE948}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,15 +488,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -492,275 +504,76 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L13" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>